--- a/queries/maintenance/sp/Blitz/sp_BlitzTо-CheckID-List.xlsx
+++ b/queries/maintenance/sp/Blitz/sp_BlitzTо-CheckID-List.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26207"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brent/Dropbox (Brent Ozar Unlimited)/BOU Employees/Products/Download Pack/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="2120" yWindow="940" windowWidth="22420" windowHeight="19620"/>
   </bookViews>
   <sheets>
     <sheet name="sp_Blitz" sheetId="3" r:id="rId1"/>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="359">
   <si>
     <t>Backups Not Performed Recently</t>
   </si>
@@ -1097,14 +1102,47 @@
     <t>https://technet.microsoft.com/en-us/library/security/MS14-044</t>
   </si>
   <si>
-    <t>sp_Blitz® Check ID List - v39 2015-02-16</t>
+    <t>Poison Wait Detected: CMEMTHREAD &amp; NUMA</t>
+  </si>
+  <si>
+    <t>File growth set to 1MB</t>
+  </si>
+  <si>
+    <t>http://BrentOzar.com/go/percentgrowth</t>
+  </si>
+  <si>
+    <t>Memory Dangerously Low in NUMA Nodes</t>
+  </si>
+  <si>
+    <t>High Number of Cached Plans</t>
+  </si>
+  <si>
+    <t>http://BrentOzar.com/go/planlimits</t>
+  </si>
+  <si>
+    <t>Many Plans for One Query</t>
+  </si>
+  <si>
+    <t>http://BrentOzar.com/go/parameterization</t>
+  </si>
+  <si>
+    <t>sp_Blitz® Check ID List - v42 2015-09-07</t>
+  </si>
+  <si>
+    <t>Query Store Disabled</t>
+  </si>
+  <si>
+    <t>http://BrentOzar.com/go/querystore</t>
+  </si>
+  <si>
+    <t>Plan Guides Failing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,6 +1191,13 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1215,7 +1260,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1233,6 +1278,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1562,16 +1610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E222"/>
+  <dimension ref="A1:E229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1581,12 +1629,12 @@
     <col min="6" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" thickBot="1">
+    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>260</v>
       </c>
@@ -1594,7 +1642,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +1659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1628,7 +1676,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1645,7 +1693,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1662,7 +1710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1679,7 +1727,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1696,7 +1744,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1713,7 +1761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1730,7 +1778,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1747,7 +1795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1764,7 +1812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1781,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1798,7 +1846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1815,7 +1863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1832,7 +1880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -1849,7 +1897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -1866,7 +1914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -1883,7 +1931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -1900,7 +1948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -1917,7 +1965,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -1934,7 +1982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -1951,7 +1999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -1968,7 +2016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -1985,7 +2033,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>22</v>
       </c>
@@ -2002,7 +2050,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>22</v>
       </c>
@@ -2019,7 +2067,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>22</v>
       </c>
@@ -2036,7 +2084,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>22</v>
       </c>
@@ -2053,7 +2101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>22</v>
       </c>
@@ -2070,7 +2118,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>22</v>
       </c>
@@ -2087,7 +2135,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>22</v>
       </c>
@@ -2104,7 +2152,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>22</v>
       </c>
@@ -2121,7 +2169,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>22</v>
       </c>
@@ -2138,7 +2186,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>22</v>
       </c>
@@ -2155,7 +2203,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -2172,7 +2220,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>22</v>
       </c>
@@ -2189,7 +2237,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>22</v>
       </c>
@@ -2206,7 +2254,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>22</v>
       </c>
@@ -2223,7 +2271,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>22</v>
       </c>
@@ -2240,7 +2288,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>22</v>
       </c>
@@ -2257,7 +2305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>22</v>
       </c>
@@ -2274,7 +2322,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>22</v>
       </c>
@@ -2291,7 +2339,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>22</v>
       </c>
@@ -2308,7 +2356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>22</v>
       </c>
@@ -2325,7 +2373,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>22</v>
       </c>
@@ -2342,7 +2390,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>22</v>
       </c>
@@ -2359,7 +2407,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>22</v>
       </c>
@@ -2376,7 +2424,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>22</v>
       </c>
@@ -2393,7 +2441,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>22</v>
       </c>
@@ -2410,7 +2458,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>22</v>
       </c>
@@ -2427,7 +2475,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>22</v>
       </c>
@@ -2444,7 +2492,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>22</v>
       </c>
@@ -2461,7 +2509,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>22</v>
       </c>
@@ -2478,7 +2526,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>22</v>
       </c>
@@ -2495,7 +2543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>22</v>
       </c>
@@ -2512,7 +2560,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>22</v>
       </c>
@@ -2529,7 +2577,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>22</v>
       </c>
@@ -2546,7 +2594,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>22</v>
       </c>
@@ -2563,7 +2611,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>22</v>
       </c>
@@ -2580,7 +2628,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>22</v>
       </c>
@@ -2597,7 +2645,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -2614,7 +2662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>22</v>
       </c>
@@ -2631,7 +2679,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>22</v>
       </c>
@@ -2648,7 +2696,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>22</v>
       </c>
@@ -2665,7 +2713,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>22</v>
       </c>
@@ -2682,7 +2730,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>22</v>
       </c>
@@ -2699,7 +2747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>22</v>
       </c>
@@ -2716,7 +2764,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>22</v>
       </c>
@@ -2733,7 +2781,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>22</v>
       </c>
@@ -2750,7 +2798,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>22</v>
       </c>
@@ -2767,7 +2815,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>22</v>
       </c>
@@ -2784,7 +2832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>22</v>
       </c>
@@ -2801,7 +2849,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>22</v>
       </c>
@@ -2818,7 +2866,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>22</v>
       </c>
@@ -2835,7 +2883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>22</v>
       </c>
@@ -2852,7 +2900,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>22</v>
       </c>
@@ -2869,7 +2917,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>22</v>
       </c>
@@ -2886,7 +2934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>22</v>
       </c>
@@ -2903,7 +2951,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>22</v>
       </c>
@@ -2920,7 +2968,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>22</v>
       </c>
@@ -2937,7 +2985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>22</v>
       </c>
@@ -2954,7 +3002,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>22</v>
       </c>
@@ -2971,7 +3019,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>22</v>
       </c>
@@ -2988,7 +3036,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>22</v>
       </c>
@@ -3005,7 +3053,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>22</v>
       </c>
@@ -3022,7 +3070,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>22</v>
       </c>
@@ -3039,7 +3087,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>22</v>
       </c>
@@ -3056,7 +3104,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>22</v>
       </c>
@@ -3073,7 +3121,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>22</v>
       </c>
@@ -3090,7 +3138,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>22</v>
       </c>
@@ -3107,7 +3155,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>22</v>
       </c>
@@ -3124,7 +3172,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>22</v>
       </c>
@@ -3141,7 +3189,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>24</v>
       </c>
@@ -3158,7 +3206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>25</v>
       </c>
@@ -3175,7 +3223,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>26</v>
       </c>
@@ -3192,7 +3240,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>27</v>
       </c>
@@ -3209,7 +3257,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>28</v>
       </c>
@@ -3226,7 +3274,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>29</v>
       </c>
@@ -3243,7 +3291,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>30</v>
       </c>
@@ -3260,7 +3308,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>31</v>
       </c>
@@ -3277,7 +3325,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>32</v>
       </c>
@@ -3294,7 +3342,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>33</v>
       </c>
@@ -3311,7 +3359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>34</v>
       </c>
@@ -3328,7 +3376,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>35</v>
       </c>
@@ -3345,7 +3393,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>36</v>
       </c>
@@ -3362,7 +3410,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>37</v>
       </c>
@@ -3379,7 +3427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>38</v>
       </c>
@@ -3396,7 +3444,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>39</v>
       </c>
@@ -3413,7 +3461,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>40</v>
       </c>
@@ -3430,7 +3478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>41</v>
       </c>
@@ -3447,7 +3495,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>42</v>
       </c>
@@ -3464,7 +3512,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>44</v>
       </c>
@@ -3481,7 +3529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>45</v>
       </c>
@@ -3498,7 +3546,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>46</v>
       </c>
@@ -3515,7 +3563,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>47</v>
       </c>
@@ -3532,7 +3580,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>48</v>
       </c>
@@ -3549,7 +3597,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>49</v>
       </c>
@@ -3566,7 +3614,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>50</v>
       </c>
@@ -3583,7 +3631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>51</v>
       </c>
@@ -3600,7 +3648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>53</v>
       </c>
@@ -3617,7 +3665,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>55</v>
       </c>
@@ -3634,7 +3682,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>56</v>
       </c>
@@ -3651,7 +3699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>57</v>
       </c>
@@ -3668,7 +3716,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>58</v>
       </c>
@@ -3685,7 +3733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>59</v>
       </c>
@@ -3702,7 +3750,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>60</v>
       </c>
@@ -3719,7 +3767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>61</v>
       </c>
@@ -3736,7 +3784,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>62</v>
       </c>
@@ -3753,7 +3801,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>63</v>
       </c>
@@ -3770,7 +3818,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>64</v>
       </c>
@@ -3787,7 +3835,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>65</v>
       </c>
@@ -3804,7 +3852,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>66</v>
       </c>
@@ -3821,7 +3869,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>67</v>
       </c>
@@ -3838,7 +3886,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>68</v>
       </c>
@@ -3855,7 +3903,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>69</v>
       </c>
@@ -3872,7 +3920,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>70</v>
       </c>
@@ -3889,7 +3937,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>72</v>
       </c>
@@ -3906,7 +3954,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>73</v>
       </c>
@@ -3923,7 +3971,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>74</v>
       </c>
@@ -3940,7 +3988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>75</v>
       </c>
@@ -3957,7 +4005,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>76</v>
       </c>
@@ -3974,7 +4022,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>77</v>
       </c>
@@ -3991,7 +4039,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>78</v>
       </c>
@@ -4008,7 +4056,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>79</v>
       </c>
@@ -4025,7 +4073,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>80</v>
       </c>
@@ -4042,7 +4090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>81</v>
       </c>
@@ -4059,7 +4107,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>82</v>
       </c>
@@ -4076,7 +4124,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>83</v>
       </c>
@@ -4090,7 +4138,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>84</v>
       </c>
@@ -4104,7 +4152,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>85</v>
       </c>
@@ -4118,7 +4166,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>86</v>
       </c>
@@ -4135,7 +4183,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>88</v>
       </c>
@@ -4149,7 +4197,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>89</v>
       </c>
@@ -4166,7 +4214,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>90</v>
       </c>
@@ -4183,7 +4231,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>92</v>
       </c>
@@ -4197,7 +4245,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>93</v>
       </c>
@@ -4214,7 +4262,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>94</v>
       </c>
@@ -4231,7 +4279,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>95</v>
       </c>
@@ -4248,7 +4296,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>96</v>
       </c>
@@ -4265,7 +4313,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>97</v>
       </c>
@@ -4282,7 +4330,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>98</v>
       </c>
@@ -4299,7 +4347,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>99</v>
       </c>
@@ -4316,7 +4364,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>100</v>
       </c>
@@ -4333,7 +4381,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>101</v>
       </c>
@@ -4350,7 +4398,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>102</v>
       </c>
@@ -4367,7 +4415,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>103</v>
       </c>
@@ -4384,7 +4432,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>104</v>
       </c>
@@ -4401,7 +4449,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>105</v>
       </c>
@@ -4418,7 +4466,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>106</v>
       </c>
@@ -4435,7 +4483,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>107</v>
       </c>
@@ -4452,7 +4500,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>108</v>
       </c>
@@ -4469,7 +4517,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>109</v>
       </c>
@@ -4486,7 +4534,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>110</v>
       </c>
@@ -4503,7 +4551,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>111</v>
       </c>
@@ -4520,7 +4568,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>112</v>
       </c>
@@ -4537,7 +4585,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>113</v>
       </c>
@@ -4554,7 +4602,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>114</v>
       </c>
@@ -4568,7 +4616,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>115</v>
       </c>
@@ -4585,7 +4633,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>116</v>
       </c>
@@ -4602,7 +4650,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>117</v>
       </c>
@@ -4619,7 +4667,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>118</v>
       </c>
@@ -4636,7 +4684,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>119</v>
       </c>
@@ -4653,7 +4701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>120</v>
       </c>
@@ -4670,7 +4718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>121</v>
       </c>
@@ -4687,7 +4735,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>122</v>
       </c>
@@ -4704,7 +4752,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>123</v>
       </c>
@@ -4721,7 +4769,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>124</v>
       </c>
@@ -4738,7 +4786,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>125</v>
       </c>
@@ -4755,7 +4803,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>126</v>
       </c>
@@ -4772,7 +4820,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>127</v>
       </c>
@@ -4789,7 +4837,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>128</v>
       </c>
@@ -4806,7 +4854,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>129</v>
       </c>
@@ -4823,7 +4871,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>130</v>
       </c>
@@ -4840,7 +4888,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>131</v>
       </c>
@@ -4857,7 +4905,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>132</v>
       </c>
@@ -4874,7 +4922,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>133</v>
       </c>
@@ -4891,7 +4939,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>134</v>
       </c>
@@ -4908,7 +4956,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>135</v>
       </c>
@@ -4925,7 +4973,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>136</v>
       </c>
@@ -4942,7 +4990,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>137</v>
       </c>
@@ -4959,7 +5007,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>138</v>
       </c>
@@ -4976,7 +5024,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>139</v>
       </c>
@@ -4993,7 +5041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>140</v>
       </c>
@@ -5010,7 +5058,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>141</v>
       </c>
@@ -5027,7 +5075,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>142</v>
       </c>
@@ -5044,7 +5092,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>143</v>
       </c>
@@ -5061,7 +5109,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>144</v>
       </c>
@@ -5078,7 +5126,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>145</v>
       </c>
@@ -5095,7 +5143,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>146</v>
       </c>
@@ -5112,7 +5160,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
         <v>147</v>
       </c>
@@ -5129,7 +5177,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
         <v>148</v>
       </c>
@@ -5146,7 +5194,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
         <v>149</v>
       </c>
@@ -5163,7 +5211,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
         <v>150</v>
       </c>
@@ -5180,7 +5228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
         <v>151</v>
       </c>
@@ -5197,7 +5245,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
         <v>152</v>
       </c>
@@ -5214,7 +5262,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
         <v>153</v>
       </c>
@@ -5231,7 +5279,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
         <v>154</v>
       </c>
@@ -5248,7 +5296,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
         <v>155</v>
       </c>
@@ -5265,7 +5313,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
         <v>156</v>
       </c>
@@ -5279,7 +5327,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
         <v>157</v>
       </c>
@@ -5294,6 +5342,125 @@
       </c>
       <c r="E222" s="5" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>158</v>
+      </c>
+      <c r="B223" s="9">
+        <v>100</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>159</v>
+      </c>
+      <c r="B224" s="4">
+        <v>1</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>160</v>
+      </c>
+      <c r="B225" s="9">
+        <v>100</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E225" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>161</v>
+      </c>
+      <c r="B226" s="4">
+        <v>100</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>162</v>
+      </c>
+      <c r="B227" s="9">
+        <v>100</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E227" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>163</v>
+      </c>
+      <c r="B228" s="4">
+        <v>10</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>164</v>
+      </c>
+      <c r="B229" s="11">
+        <v>20</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -5346,14 +5513,16 @@
     <hyperlink ref="E218" r:id="rId43"/>
     <hyperlink ref="E219" r:id="rId44"/>
     <hyperlink ref="E220" r:id="rId45"/>
+    <hyperlink ref="E223" r:id="rId46"/>
+    <hyperlink ref="E225" r:id="rId47"/>
+    <hyperlink ref="E224" r:id="rId48"/>
+    <hyperlink ref="E226" r:id="rId49"/>
+    <hyperlink ref="E227" r:id="rId50"/>
+    <hyperlink ref="E228" r:id="rId51"/>
+    <hyperlink ref="E229" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId46"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <legacyDrawing r:id="rId53"/>
 </worksheet>
 </file>